--- a/biology/Botanique/Chidlowia_sanguinea/Chidlowia_sanguinea.xlsx
+++ b/biology/Botanique/Chidlowia_sanguinea/Chidlowia_sanguinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chidlowia sanguinea est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire des régions tropicales d'Afrique de l'Ouest. C'est l'unique espèce acceptée du genre Chidlowia (genre monotypique).
-Ce sont des arbres à feuilles caduques, atteignant généralement 25 mètres de haut, parfois 30 mètres. Le fût, souvent tordu, cannelé, peut atteindre 80, voire 100 cm, de diamètre. Le tronc des grands arbres est souvent creux, ce qui en diminue la valeur commerciale et peut constituer un danger lors de l'abattage[3].
+Ce sont des arbres à feuilles caduques, atteignant généralement 25 mètres de haut, parfois 30 mètres. Le fût, souvent tordu, cannelé, peut atteindre 80, voire 100 cm, de diamètre. Le tronc des grands arbres est souvent creux, ce qui en diminue la valeur commerciale et peut constituer un danger lors de l'abattage.
 </t>
         </is>
       </c>
